--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCVaccineBrand.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCVaccineBrand.xlsx
@@ -209,7 +209,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCVaccineBrand</t>
+    <t>https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCVaccineBrand</t>
   </si>
   <si>
     <t>N/A</t>

--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCVaccineBrand.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCVaccineBrand.xlsx
@@ -209,7 +209,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCVaccineBrand</t>
+    <t>https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCVaccineBrand</t>
   </si>
   <si>
     <t>N/A</t>
